--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK05001_メニュー画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK05001_メニュー画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A37CAA-0AE9-4038-9CCB-A4FF7856B593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8149903-DF52-4B85-A33A-F6C4FB5A0AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7960" yWindow="1590" windowWidth="11120" windowHeight="8860" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>画面設計書</t>
     <rPh sb="0" eb="2">
@@ -180,7 +180,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A</t>
+    <t>番号</t>
   </si>
   <si>
     <t>物理名</t>
@@ -235,7 +235,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>list_of_months</t>
+    <t>monthlyList</t>
   </si>
   <si>
     <t>月別一覧</t>
@@ -247,13 +247,13 @@
     <t>button</t>
   </si>
   <si>
-    <t>passchange</t>
+    <t>pass</t>
   </si>
   <si>
     <t>パスワード変更</t>
   </si>
   <si>
-    <t>regist</t>
+    <t>user</t>
   </si>
   <si>
     <t>ユーザー登録</t>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>1. パスワード変更画面に遷移する</t>
-  </si>
-  <si>
-    <t>(管理者（userテーブルのadmin_flgの値が"1"）であればユーザー登録のボタンを表示される)</t>
   </si>
   <si>
     <t>userRegister</t>
@@ -4858,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
@@ -5971,9 +5968,7 @@
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -6120,7 +6115,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -6233,7 +6228,7 @@
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -6737,7 +6732,7 @@
     <row r="7" spans="1:33">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -6775,13 +6770,13 @@
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6814,13 +6809,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK05001_メニュー画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK05001_メニュー画面.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\画面設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8149903-DF52-4B85-A33A-F6C4FB5A0AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="1590" windowWidth="11120" windowHeight="8860" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="1590" windowWidth="11115" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="処理概要" sheetId="5" r:id="rId5"/>
     <sheet name="備考" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -273,9 +272,6 @@
     <t>ログアウト</t>
   </si>
   <si>
-    <t>KK05001_Controller</t>
-  </si>
-  <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -349,15 +345,19 @@
   <si>
     <t>テーブル物理名：</t>
   </si>
+  <si>
+    <t>KK05001Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,13 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,67 +847,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,14 +910,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -979,8 +979,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,14 +1270,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="9" width="3.625" style="1"/>
     <col min="10" max="15" width="4.5" style="1" customWidth="1"/>
@@ -1286,13 +1284,13 @@
     <col min="25" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1327,7 +1325,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1337,23 +1335,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1364,7 +1362,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1374,21 +1372,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1399,7 +1397,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1409,21 +1407,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1434,7 +1432,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1469,7 +1467,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1504,7 +1502,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="18.75" customHeight="1">
+    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1514,25 +1512,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1543,7 +1541,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1553,21 +1551,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1578,7 +1576,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1588,25 +1586,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1617,7 +1615,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1627,21 +1625,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1652,7 +1650,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1687,7 +1685,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1722,7 +1720,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1755,7 +1753,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="22.5">
+    <row r="16" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1765,29 +1763,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="18" t="s">
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1798,7 +1796,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="22.5">
+    <row r="17" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1808,29 +1806,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17">
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="23">
         <v>44139</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="16" t="s">
+      <c r="R17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17">
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="23">
         <v>44139</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -1841,7 +1839,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1876,7 +1874,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1911,7 +1909,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1946,7 +1944,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1981,7 +1979,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2016,7 +2014,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2051,7 +2049,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2086,7 +2084,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2121,7 +2119,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2158,6 +2156,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2165,12 +2169,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2179,14 +2177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8:AE8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
@@ -2195,107 +2193,107 @@
     <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="24" t="str">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="54" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="36" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="57" t="str">
+      <c r="W1" s="24"/>
+      <c r="X1" s="25" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="36" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="58">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="26">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="36" t="s">
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="24" t="str">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="54" t="str">
         <f>表紙!O11</f>
         <v>メニュー</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="36" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="57" t="str">
+      <c r="W2" s="24"/>
+      <c r="X2" s="25" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="36" t="s">
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="58">
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="26">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2330,7 +2328,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="22.5">
+    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -2357,7 +2355,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2392,688 +2390,688 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="25.5" customHeight="1">
+    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="46" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="47"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="31"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="21" customHeight="1">
+    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="48">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51">
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35">
         <v>44139</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="37" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="39"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="43"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="19.5" customHeight="1">
+    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="43"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="19.5" customHeight="1">
+    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="43"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" customHeight="1">
+    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="39"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="43"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" customHeight="1">
+    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="39"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="43"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="19.5" customHeight="1">
+    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="39"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="43"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="19.5" customHeight="1">
+    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="39"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="43"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1">
+    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="43"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="19.5" customHeight="1">
+    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="39"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="43"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="19.5" customHeight="1">
+    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="39"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="43"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" customHeight="1">
+    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="50"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="19.5" customHeight="1">
+    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="39"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="43"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="19.5" customHeight="1">
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="39"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="43"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" customHeight="1">
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="39"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="43"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="19.5" customHeight="1">
+    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="39"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="43"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="19.5" customHeight="1">
+    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="39"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="43"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="39"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="43"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="35"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="53"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3108,7 +3106,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3145,62 +3143,22 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AB12"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3217,22 +3175,62 @@
     <mergeCell ref="I20:AB20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3241,14 +3239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="3" style="1" customWidth="1"/>
@@ -3258,107 +3256,107 @@
     <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="24" t="str">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="54" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="36" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="57" t="str">
+      <c r="W1" s="24"/>
+      <c r="X1" s="25" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="36" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="58">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="26">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="36" t="s">
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="24" t="str">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="54" t="str">
         <f>表紙!O11</f>
         <v>メニュー</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="36" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="57" t="str">
+      <c r="W2" s="24"/>
+      <c r="X2" s="25" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="36" t="s">
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="58">
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="26">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3393,7 +3391,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3428,7 +3426,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3463,7 +3461,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3498,7 +3496,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3533,7 +3531,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3568,7 +3566,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3603,7 +3601,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3638,7 +3636,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3673,7 +3671,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3708,7 +3706,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3743,7 +3741,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3778,7 +3776,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3813,7 +3811,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3848,7 +3846,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3883,7 +3881,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3918,7 +3916,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3953,7 +3951,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3988,7 +3986,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4023,7 +4021,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4058,7 +4056,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4093,7 +4091,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4128,7 +4126,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4163,7 +4161,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4220,14 +4218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AU29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:O6"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="3" style="1" customWidth="1"/>
@@ -4236,136 +4234,136 @@
     <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="18" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="24" t="str">
+    <row r="1" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="54" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="36" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36" t="str">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="58">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="26">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
       <c r="AU1" s="7"/>
     </row>
-    <row r="2" spans="1:47" ht="18.75">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="24" t="str">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="54" t="str">
         <f>表紙!O11</f>
         <v>メニュー</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="36" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36" t="str">
+      <c r="W2" s="24"/>
+      <c r="X2" s="24" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36" t="s">
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="58">
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="26">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
       <c r="AU2" s="7"/>
     </row>
-    <row r="3" spans="1:47" ht="18.75">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="AU3" s="7"/>
     </row>
-    <row r="4" spans="1:47" ht="18.75">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="AU4" s="7"/>
     </row>
-    <row r="5" spans="1:47" ht="18" customHeight="1">
+    <row r="5" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="65" t="s">
         <v>21</v>
       </c>
@@ -4373,64 +4371,64 @@
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="67"/>
-      <c r="U5" s="64" t="s">
+      <c r="U5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64" t="s">
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64" t="s">
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64" t="s">
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
       <c r="AU5" s="7"/>
     </row>
-    <row r="6" spans="1:47" ht="37.5" customHeight="1">
+    <row r="6" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="30">
+      <c r="B6" s="47">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
       <c r="P6" s="60" t="s">
         <v>28</v>
       </c>
@@ -4450,52 +4448,52 @@
       <c r="Z6" s="63"/>
       <c r="AA6" s="63"/>
       <c r="AB6" s="63"/>
-      <c r="AC6" s="59" t="s">
+      <c r="AC6" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59" t="s">
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
       <c r="AU6" s="7"/>
     </row>
-    <row r="7" spans="1:47" ht="18.75">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="30">
+      <c r="B7" s="47">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="60" t="s">
         <v>28</v>
       </c>
@@ -4515,52 +4513,52 @@
       <c r="Z7" s="63"/>
       <c r="AA7" s="63"/>
       <c r="AB7" s="63"/>
-      <c r="AC7" s="59" t="s">
+      <c r="AC7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59" t="s">
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
       <c r="AU7" s="7"/>
     </row>
-    <row r="8" spans="1:47" ht="18.75">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="30">
+      <c r="B8" s="47">
         <v>3</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="60" t="s">
         <v>28</v>
       </c>
@@ -4580,52 +4578,52 @@
       <c r="Z8" s="63"/>
       <c r="AA8" s="63"/>
       <c r="AB8" s="63"/>
-      <c r="AC8" s="30" t="s">
+      <c r="AC8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30" t="s">
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="30"/>
-      <c r="AT8" s="30"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
       <c r="AU8" s="7"/>
     </row>
-    <row r="9" spans="1:47" ht="18.75">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="30">
+      <c r="B9" s="47">
         <v>4</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="60" t="s">
         <v>28</v>
       </c>
@@ -4645,95 +4643,95 @@
       <c r="Z9" s="63"/>
       <c r="AA9" s="63"/>
       <c r="AB9" s="63"/>
-      <c r="AC9" s="30" t="s">
+      <c r="AC9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30" t="s">
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
       <c r="AU9" s="7"/>
     </row>
-    <row r="10" spans="1:47" ht="18" customHeight="1">
+    <row r="10" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="AU10" s="7"/>
     </row>
-    <row r="11" spans="1:47" ht="18" customHeight="1">
+    <row r="11" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="AU11" s="7"/>
     </row>
-    <row r="12" spans="1:47" ht="18" customHeight="1">
+    <row r="12" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="AU12" s="7"/>
     </row>
-    <row r="13" spans="1:47" ht="18" customHeight="1">
+    <row r="13" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="AU13" s="7"/>
     </row>
-    <row r="14" spans="1:47" ht="18" customHeight="1">
+    <row r="14" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="AU14" s="7"/>
     </row>
-    <row r="15" spans="1:47" ht="18" customHeight="1">
+    <row r="15" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="AU15" s="7"/>
     </row>
-    <row r="16" spans="1:47" ht="18" customHeight="1">
+    <row r="16" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="AU16" s="7"/>
     </row>
-    <row r="17" spans="1:47" ht="18" customHeight="1">
+    <row r="17" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="AU17" s="7"/>
     </row>
-    <row r="18" spans="1:47" ht="18" customHeight="1">
+    <row r="18" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="AU18" s="7"/>
     </row>
-    <row r="19" spans="1:47" ht="18" customHeight="1">
+    <row r="19" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="AU19" s="7"/>
     </row>
-    <row r="20" spans="1:47" ht="18" customHeight="1">
+    <row r="20" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="AU20" s="7"/>
     </row>
-    <row r="21" spans="1:47" ht="18" customHeight="1">
+    <row r="21" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="AU21" s="7"/>
     </row>
-    <row r="22" spans="1:47" ht="18" customHeight="1">
+    <row r="22" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="AU22" s="7"/>
     </row>
-    <row r="23" spans="1:47" ht="18" customHeight="1">
+    <row r="23" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="AU23" s="7"/>
     </row>
-    <row r="24" spans="1:47" ht="18" customHeight="1">
+    <row r="24" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="AU24" s="7"/>
     </row>
-    <row r="25" spans="1:47" ht="18" customHeight="1">
+    <row r="25" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="AU25" s="7"/>
     </row>
-    <row r="26" spans="1:47" ht="18" customHeight="1">
+    <row r="26" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4782,48 +4780,10 @@
       <c r="AT26" s="3"/>
       <c r="AU26" s="4"/>
     </row>
-    <row r="27" spans="1:47" ht="18" customHeight="1"/>
-    <row r="28" spans="1:47" ht="18" customHeight="1"/>
-    <row r="29" spans="1:47" ht="18.75"/>
+    <row r="27" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="AL5:AT5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AK5"/>
     <mergeCell ref="AL9:AT9"/>
     <mergeCell ref="AL7:AT7"/>
     <mergeCell ref="P8:T8"/>
@@ -4839,10 +4799,47 @@
     <mergeCell ref="U9:X9"/>
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U9" xr:uid="{BA2F91B5-9EA4-4E60-A750-A8731185AA8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U9">
       <formula1>"text,textarea,password,button,link"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4852,14 +4849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AJ55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:Y28"/>
+    <sheetView zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
@@ -4868,107 +4865,107 @@
     <col min="37" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="24" t="str">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="54" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="36" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="57" t="str">
+      <c r="W1" s="24"/>
+      <c r="X1" s="25" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="36" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="58">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="26">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-    </row>
-    <row r="2" spans="1:36" ht="18.75">
-      <c r="A2" s="36" t="s">
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="24" t="str">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="54" t="str">
         <f>表紙!O11</f>
         <v>メニュー</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="36" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="57" t="str">
+      <c r="W2" s="24"/>
+      <c r="X2" s="25" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="36" t="s">
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="58">
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="26">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-    </row>
-    <row r="3" spans="1:36" ht="18.75">
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5006,10 +5003,10 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" ht="18.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5046,7 +5043,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:36" ht="18.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5084,16 +5081,16 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" ht="18.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5108,11 +5105,11 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
       <c r="S6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
@@ -5130,7 +5127,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="1:36" ht="18.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
@@ -5150,11 +5147,11 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="4"/>
       <c r="S7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -5172,7 +5169,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="1:36" ht="18.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
@@ -5210,12 +5207,12 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="1:36" ht="18.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5250,12 +5247,12 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:36" ht="18.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5290,7 +5287,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:36" ht="18.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -5328,7 +5325,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:36" ht="18.75">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
@@ -5366,7 +5363,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:36" ht="18.75">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5404,7 +5401,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:36" ht="18.75">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5442,16 +5439,16 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="1:36" ht="18.75">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -5466,11 +5463,11 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
       <c r="S15" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T15" s="13"/>
       <c r="U15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -5488,7 +5485,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:36" ht="18.75">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="2"/>
@@ -5508,11 +5505,11 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="4"/>
       <c r="S16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -5530,7 +5527,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="1:36" ht="18.75">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -5568,12 +5565,12 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="1:36" ht="18.75">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -5608,7 +5605,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" spans="1:36" ht="18.75">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -5646,7 +5643,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
     </row>
-    <row r="20" spans="1:36" ht="18.75">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -5684,7 +5681,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
     </row>
-    <row r="21" spans="1:36" ht="18.75">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="2"/>
@@ -5722,7 +5719,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
     </row>
-    <row r="22" spans="1:36" ht="18.75">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5760,7 +5757,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
     </row>
-    <row r="23" spans="1:36" ht="18.75">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5798,16 +5795,16 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="1:36" ht="18.75">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -5822,11 +5819,11 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="10"/>
       <c r="S24" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
@@ -5844,7 +5841,7 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
     </row>
-    <row r="25" spans="1:36" ht="18.75">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="2"/>
@@ -5864,11 +5861,11 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="4"/>
       <c r="S25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -5886,7 +5883,7 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" spans="1:36" ht="18.75">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
@@ -5924,12 +5921,12 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" spans="1:36" ht="18.75">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -5964,7 +5961,7 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" spans="1:36" ht="18.75">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
@@ -6002,7 +5999,7 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" spans="1:36" ht="18.75">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -6037,7 +6034,7 @@
       <c r="AG29" s="7"/>
       <c r="AH29" s="6"/>
     </row>
-    <row r="30" spans="1:36" ht="18.75">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -6072,7 +6069,7 @@
       <c r="AG30" s="7"/>
       <c r="AH30" s="6"/>
     </row>
-    <row r="31" spans="1:36" ht="18.75">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -6107,15 +6104,15 @@
       <c r="AG31" s="7"/>
       <c r="AH31" s="6"/>
     </row>
-    <row r="32" spans="1:36" ht="18.75">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
       <c r="C32" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -6130,11 +6127,11 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="10"/>
       <c r="S32" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T32" s="13"/>
       <c r="U32" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
@@ -6150,7 +6147,7 @@
       <c r="AG32" s="7"/>
       <c r="AH32" s="6"/>
     </row>
-    <row r="33" spans="1:34" ht="18.75">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
@@ -6169,11 +6166,11 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="4"/>
       <c r="S33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -6189,7 +6186,7 @@
       <c r="AG33" s="7"/>
       <c r="AH33" s="6"/>
     </row>
-    <row r="34" spans="1:34" ht="18.75">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -6224,11 +6221,11 @@
       <c r="AG34" s="7"/>
       <c r="AH34" s="6"/>
     </row>
-    <row r="35" spans="1:34" ht="18.75">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -6261,7 +6258,7 @@
       <c r="AG35" s="7"/>
       <c r="AH35" s="6"/>
     </row>
-    <row r="36" spans="1:34" ht="18.75">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -6296,7 +6293,7 @@
       <c r="AG36" s="7"/>
       <c r="AH36" s="6"/>
     </row>
-    <row r="37" spans="1:34" ht="18.75">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
@@ -6331,7 +6328,7 @@
       <c r="AG37" s="7"/>
       <c r="AH37" s="6"/>
     </row>
-    <row r="38" spans="1:34" ht="18.75">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B38" s="6"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -6366,7 +6363,7 @@
       <c r="AG38" s="7"/>
       <c r="AH38" s="6"/>
     </row>
-    <row r="39" spans="1:34" ht="18.75">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.4">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -6401,7 +6398,7 @@
       <c r="AG39" s="7"/>
       <c r="AH39" s="6"/>
     </row>
-    <row r="40" spans="1:34" ht="18.75">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -6436,21 +6433,6 @@
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
     </row>
-    <row r="41" spans="1:34" ht="18.75"/>
-    <row r="42" spans="1:34" ht="18.75"/>
-    <row r="43" spans="1:34" ht="18.75"/>
-    <row r="44" spans="1:34" ht="18.75"/>
-    <row r="45" spans="1:34" ht="18.75"/>
-    <row r="46" spans="1:34" ht="18.75"/>
-    <row r="47" spans="1:34" ht="18.75"/>
-    <row r="48" spans="1:34" ht="18.75"/>
-    <row r="49" ht="18.75"/>
-    <row r="50" ht="18.75"/>
-    <row r="51" ht="18.75"/>
-    <row r="52" ht="18.75"/>
-    <row r="53" ht="18.75"/>
-    <row r="54" ht="18.75"/>
-    <row r="55" ht="18.75"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="AD2:AG2"/>
@@ -6473,14 +6455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
@@ -6489,107 +6471,107 @@
     <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="24" t="str">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="54" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="36" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="57" t="str">
+      <c r="W1" s="24"/>
+      <c r="X1" s="25" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="36" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="58">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="26">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="36" t="s">
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="24" t="str">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="54" t="str">
         <f>表紙!O11</f>
         <v>メニュー</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="36" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="57" t="str">
+      <c r="W2" s="24"/>
+      <c r="X2" s="25" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="36" t="s">
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="58">
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="26">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6624,7 +6606,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6659,7 +6641,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6694,7 +6676,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6729,10 +6711,10 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -6766,17 +6748,17 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6805,17 +6787,17 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -6844,7 +6826,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6879,7 +6861,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6914,7 +6896,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6949,7 +6931,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6984,7 +6966,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7019,7 +7001,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7054,7 +7036,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7089,7 +7071,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7124,7 +7106,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7159,7 +7141,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7194,7 +7176,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -7229,7 +7211,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -7264,7 +7246,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -7299,7 +7281,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -7334,7 +7316,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -7369,7 +7351,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7404,7 +7386,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
